--- a/data/trans_camb/P19C03-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 14,21</t>
+          <t>0,49; 13,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 1,71</t>
+          <t>-11,66; 1,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,4; -4,28</t>
+          <t>-17,13; -4,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 2,21</t>
+          <t>-13,47; 2,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,88; -4,16</t>
+          <t>-19,0; -3,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -9,3</t>
+          <t>-21,86; -9,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,02</t>
+          <t>-3,25; 7,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,63; -2,27</t>
+          <t>-12,06; -2,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,89; -8,25</t>
+          <t>-17,12; -8,26</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 53,38</t>
+          <t>0,94; 53,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 6,37</t>
+          <t>-35,97; 7,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,67; -17,0</t>
+          <t>-52,2; -14,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 7,6</t>
+          <t>-37,18; 10,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,25; -13,35</t>
+          <t>-50,35; -13,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,82; -31,64</t>
+          <t>-58,93; -33,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 23,94</t>
+          <t>-9,91; 27,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,31; -7,91</t>
+          <t>-36,95; -8,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,84; -29,6</t>
+          <t>-51,44; -29,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 1,75</t>
+          <t>-12,87; 2,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,52; -0,13</t>
+          <t>-15,26; -0,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -10,86</t>
+          <t>-24,49; -11,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 1,12</t>
+          <t>-14,12; 1,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,17; -1,22</t>
+          <t>-15,26; -0,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,92; -14,43</t>
+          <t>-26,48; -14,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -0,61</t>
+          <t>-11,48; -1,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,7; -2,47</t>
+          <t>-13,31; -2,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -15,17</t>
+          <t>-23,99; -15,26</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 5,76</t>
+          <t>-34,51; 9,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,8; 0,5</t>
+          <t>-39,67; 0,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,78; -37,46</t>
+          <t>-65,38; -37,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,23; 4,14</t>
+          <t>-35,14; 5,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,72; -3,13</t>
+          <t>-38,12; -2,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,04; -44,15</t>
+          <t>-64,36; -43,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,56; -1,81</t>
+          <t>-30,78; -3,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,74; -7,78</t>
+          <t>-34,57; -8,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,91; -45,65</t>
+          <t>-62,64; -46,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 0,25</t>
+          <t>-11,68; 0,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 0,9</t>
+          <t>-11,68; 0,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-35,34; -12,4</t>
+          <t>-32,63; -11,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 7,69</t>
+          <t>-11,12; 8,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 4,89</t>
+          <t>-16,42; 4,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,61; -5,73</t>
+          <t>-25,43; -6,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -0,18</t>
+          <t>-10,51; 0,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -0,52</t>
+          <t>-11,46; -0,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-32,5; -13,14</t>
+          <t>-30,77; -12,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 1,72</t>
+          <t>-30,92; 0,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 3,91</t>
+          <t>-31,34; 1,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,45; -35,27</t>
+          <t>-86,76; -34,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 28,92</t>
+          <t>-28,72; 35,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 18,99</t>
+          <t>-44,16; 18,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,42; -21,47</t>
+          <t>-66,04; -22,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,59; -0,62</t>
+          <t>-27,95; 1,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -1,7</t>
+          <t>-30,84; -1,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-86,94; -39,4</t>
+          <t>-81,11; -37,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 2,33</t>
+          <t>-6,61; 1,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 2,58</t>
+          <t>-5,9; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -5,57</t>
+          <t>-13,55; -5,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 1,74</t>
+          <t>-8,11; 2,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 2,26</t>
+          <t>-8,07; 2,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,83; -12,79</t>
+          <t>-28,06; -12,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 0,66</t>
+          <t>-5,91; 0,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,28</t>
+          <t>-5,28; 1,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,58; -10,11</t>
+          <t>-20,4; -10,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 7,83</t>
+          <t>-19,62; 6,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 9,02</t>
+          <t>-18,06; 9,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,31; -18,78</t>
+          <t>-40,77; -17,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 5,43</t>
+          <t>-21,61; 7,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 6,99</t>
+          <t>-20,43; 9,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,4; -37,06</t>
+          <t>-72,56; -36,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 2,02</t>
+          <t>-16,94; 2,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 3,98</t>
+          <t>-15,25; 4,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,17; -31,41</t>
+          <t>-59,21; -31,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 2,17</t>
+          <t>-13,07; 2,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 1,14</t>
+          <t>-13,65; 0,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,13; -8,07</t>
+          <t>-22,09; -8,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -0,77</t>
+          <t>-12,0; -0,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 0,68</t>
+          <t>-11,48; 0,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-20,7; -2,55</t>
+          <t>-20,33; -1,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -1,43</t>
+          <t>-10,55; -1,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -1,49</t>
+          <t>-10,56; -1,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,29; -6,01</t>
+          <t>-19,03; -6,13</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 7,61</t>
+          <t>-34,93; 5,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 3,73</t>
+          <t>-35,98; 2,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-59,57; -26,84</t>
+          <t>-58,62; -26,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-32,64; -2,58</t>
+          <t>-32,0; -1,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 2,38</t>
+          <t>-30,68; 1,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,78; -7,52</t>
+          <t>-55,27; -5,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -4,17</t>
+          <t>-28,7; -5,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,9; -4,75</t>
+          <t>-28,65; -3,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,39; -16,31</t>
+          <t>-53,29; -17,37</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 11,93</t>
+          <t>-6,41; 10,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 4,78</t>
+          <t>-13,19; 3,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,65; -1,99</t>
+          <t>-24,25; -2,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,19</t>
+          <t>-3,84; 4,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -3,02</t>
+          <t>-11,16; -2,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,79; -7,85</t>
+          <t>-15,99; -8,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,18</t>
+          <t>-3,11; 4,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -2,61</t>
+          <t>-10,18; -2,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -8,5</t>
+          <t>-15,95; -8,01</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 44,9</t>
+          <t>-18,45; 41,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 20,67</t>
+          <t>-38,5; 14,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,12; -6,08</t>
+          <t>-72,64; -6,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 16,64</t>
+          <t>-13,4; 17,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,66; -12,2</t>
+          <t>-38,92; -11,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,08; -30,79</t>
+          <t>-56,14; -31,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 16,39</t>
+          <t>-10,56; 17,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-34,67; -9,96</t>
+          <t>-35,21; -10,99</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,76; -31,5</t>
+          <t>-55,6; -30,6</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,49</t>
+          <t>-4,78; 0,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -1,93</t>
+          <t>-7,12; -1,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -11,48</t>
+          <t>-19,11; -11,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -0,56</t>
+          <t>-5,45; -0,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,37; -3,55</t>
+          <t>-8,25; -3,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -11,78</t>
+          <t>-18,15; -11,7</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -0,75</t>
+          <t>-4,14; -0,77</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -3,55</t>
+          <t>-6,93; -3,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-17,03; -12,41</t>
+          <t>-17,25; -12,37</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 1,7</t>
+          <t>-14,39; 2,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -6,28</t>
+          <t>-21,41; -6,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-58,12; -36,89</t>
+          <t>-57,9; -36,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,4; -1,9</t>
+          <t>-16,45; -1,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,04; -11,43</t>
+          <t>-24,82; -10,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-56,92; -37,69</t>
+          <t>-55,37; -37,9</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -2,36</t>
+          <t>-12,53; -2,46</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,23; -11,15</t>
+          <t>-21,25; -11,21</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-52,33; -39,3</t>
+          <t>-53,15; -39,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C03-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
